--- a/biology/Zoologie/Chaetodermis/Chaetodermis.xlsx
+++ b/biology/Zoologie/Chaetodermis/Chaetodermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-lime feuillu, Poisson-lime orné
 Chaetodermis penicilligerus, communément nommé Poisson-lime feuillu ou Poisson-lime orné, est une espèce de poissons marins démersal de la famille des Monacanthidae ou Poissons-limes.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetodermis penicilligerus est un poisson de taille moyenne pouvant atteindre 31 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetodermis penicilligerus est un poisson de taille moyenne pouvant atteindre 31 cm de long.
 Son corps est fortement comprimé latéralement, trapu, la bouche est terminale, la tête est grande proportionnellement au corps.
-Présence d'excroissances cutanées en particulier sur le pourtour du corps ainsi que sur les flancs. Ces dernières jouent un rôle actif dans le camouflage de l'animal[2].
+Présence d'excroissances cutanées en particulier sur le pourtour du corps ainsi que sur les flancs. Ces dernières jouent un rôle actif dans le camouflage de l'animal.
 La couleur de fond du corps est beige clair avec des lignes longitudinales et des taches sombres surlignées de bleu.
 Le poisson-lime orné possède deux épines dorsales érectiles. Ses nageoires dorsales, annales et caudales sont translucides dont seuls les rayons sont plus foncés et visibles.
 </t>
@@ -547,10 +561,12 @@
           <t>Distribution &amp; habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-lime feuillu fréquente les eaux tropicales du centre du bassin Indo-Pacifique[1].
-Il affectionne les lagons ou zones côtières avec des herbiers et des zones d'algues dans lesquelles il lui est aisé de se dissimuler et ce de la surface à 20 m de profondeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-lime feuillu fréquente les eaux tropicales du centre du bassin Indo-Pacifique.
+Il affectionne les lagons ou zones côtières avec des herbiers et des zones d'algues dans lesquelles il lui est aisé de se dissimuler et ce de la surface à 20 m de profondeur.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-lime feuillu se nourrit d'algues, d'invertébrés, de coraux et d'anémones[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-lime feuillu se nourrit d'algues, d'invertébrés, de coraux et d'anémones.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson-lime a une activité diurne, il est solitaire.
 </t>
